--- a/output/calorimetry/test_6.xlsx
+++ b/output/calorimetry/test_6.xlsx
@@ -100,7 +100,7 @@
     <t>0.012901727361525272</t>
   </si>
   <si>
-    <t>0.001</t>
+    <t>0.004</t>
   </si>
   <si>
     <t>0.003993345223296882</t>
@@ -181,16 +181,16 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>3.50726318359375</t>
-  </si>
-  <si>
-    <t>4.8828125</t>
-  </si>
-  <si>
-    <t>0.0005984962256845596</t>
-  </si>
-  <si>
-    <t>0.000668141992417393</t>
+    <t>3.5067138671875</t>
+  </si>
+  <si>
+    <t>4.87666015625</t>
+  </si>
+  <si>
+    <t>0.0006203468514739849</t>
+  </si>
+  <si>
+    <t>0.0006921808129143102</t>
   </si>
   <si>
     <t>OK</t>
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.979539730394253</v>
+        <v>9.980668967647899</v>
       </c>
       <c r="E2">
-        <v>12.64976737133029</v>
+        <v>12.67604140786434</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003999575206565355</v>
+        <v>0.0004147524032530531</v>
       </c>
       <c r="E3">
-        <v>0.003117933123632916</v>
+        <v>0.003266565188243474</v>
       </c>
     </row>
   </sheetData>
@@ -665,12 +665,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -899,296 +899,296 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2.372136740842306e-17</v>
+        <v>7.222210809981086e-18</v>
       </c>
       <c r="B2">
-        <v>0.0009999999999999239</v>
+        <v>0.003999999999999909</v>
       </c>
       <c r="C2">
-        <v>7.627863341128279e-17</v>
+        <v>9.277778919002419e-17</v>
       </c>
       <c r="D2">
-        <v>4.296273693885856e-32</v>
+        <v>1.570581470776085e-32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5.5865099779057e-05</v>
+        <v>5.593059548911765e-05</v>
       </c>
       <c r="B3">
-        <v>0.003384539132013292</v>
+        <v>0.003384595162147668</v>
       </c>
       <c r="C3">
-        <v>0.0006079996120346236</v>
+        <v>0.000607953047475934</v>
       </c>
       <c r="D3">
-        <v>8.064792490422001e-07</v>
+        <v>7.970136733563383e-07</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.0001323321081985481</v>
+        <v>0.0001324868468631072</v>
       </c>
       <c r="B4">
-        <v>0.002794035670349885</v>
+        <v>0.002794146625989332</v>
       </c>
       <c r="C4">
-        <v>0.001188941157404897</v>
+        <v>0.001188873984790546</v>
       </c>
       <c r="D4">
-        <v>3.73572508779341e-06</v>
+        <v>3.691942062680435e-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.0002401397953726934</v>
+        <v>0.0002404193319097208</v>
       </c>
       <c r="B5">
-        <v>0.002240293372815375</v>
+        <v>0.00224045752904771</v>
       </c>
       <c r="C5">
-        <v>0.001729944673857349</v>
+        <v>0.001729895897929652</v>
       </c>
       <c r="D5">
-        <v>9.863831996258994e-06</v>
+        <v>9.748451691554974e-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0003951728317161949</v>
+        <v>0.0003956292553304147</v>
       </c>
       <c r="B6">
-        <v>0.001740750093211917</v>
+        <v>0.001740964389764155</v>
       </c>
       <c r="C6">
-        <v>0.002212007981720371</v>
+        <v>0.002212035812229965</v>
       </c>
       <c r="D6">
-        <v>2.075501660457786e-05</v>
+        <v>2.051288954255443e-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.000616899708470761</v>
+        <v>0.000617603103387726</v>
       </c>
       <c r="B7">
-        <v>0.001316713007946652</v>
+        <v>0.001316971733536983</v>
       </c>
       <c r="C7">
-        <v>0.002611974150600337</v>
+        <v>0.002612160094336278</v>
       </c>
       <c r="D7">
-        <v>3.825892438301542e-05</v>
+        <v>3.78142550562292e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0009201839562201286</v>
+        <v>0.0009212135445930855</v>
       </c>
       <c r="B8">
-        <v>0.0009842927463943945</v>
+        <v>0.0009845864763572906</v>
       </c>
       <c r="C8">
-        <v>0.00291247445656773</v>
+        <v>0.002912916585013963</v>
       </c>
       <c r="D8">
-        <v>6.363354209135824e-05</v>
+        <v>6.289768368084272e-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001304502026424842</v>
+        <v>0.00130592744186251</v>
       </c>
       <c r="B9">
-        <v>0.0007425545360555206</v>
+        <v>0.0007428715299314693</v>
       </c>
       <c r="C9">
-        <v>0.003114843972820497</v>
+        <v>0.003115635400501806</v>
       </c>
       <c r="D9">
-        <v>9.647846199212599e-05</v>
+        <v>9.537004042953844e-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001754328043855765</v>
+        <v>0.001756195332468642</v>
       </c>
       <c r="B10">
-        <v>0.0005740622079231037</v>
+        <v>0.0005743918140860527</v>
       </c>
       <c r="C10">
-        <v>0.003238418311069171</v>
+        <v>0.003239626387327993</v>
       </c>
       <c r="D10">
-        <v>0.0001348941353553244</v>
+        <v>0.0001333564529049394</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.002250119942215168</v>
+        <v>0.002252450997972428</v>
       </c>
       <c r="B11">
-        <v>0.0004570704165869817</v>
+        <v>0.0004574050196833786</v>
       </c>
       <c r="C11">
-        <v>0.003307135317577248</v>
+        <v>0.003308797166988412</v>
       </c>
       <c r="D11">
-        <v>0.0001766879575010976</v>
+        <v>0.0001746915048426658</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.00277615769389974</v>
+        <v>0.002778956879757712</v>
       </c>
       <c r="B12">
-        <v>0.0003741565748199792</v>
+        <v>0.00037449138235466</v>
       </c>
       <c r="C12">
-        <v>0.003340109437041775</v>
+        <v>0.003342239007155932</v>
       </c>
       <c r="D12">
-        <v>0.0002201679732639612</v>
+        <v>0.0002177035949441812</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.003321858990322557</v>
+        <v>0.003325119831755202</v>
       </c>
       <c r="B13">
-        <v>0.0003136297382193038</v>
+        <v>0.0003139618783996096</v>
       </c>
       <c r="C13">
-        <v>0.003350129632435449</v>
+        <v>0.003352726191065235</v>
       </c>
       <c r="D13">
-        <v>0.0002642360823953675</v>
+        <v>0.0002613073811038054</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.003880501160131214</v>
+        <v>0.003884210976876947</v>
       </c>
       <c r="B14">
-        <v>0.0002680892500160444</v>
+        <v>0.0002684170240712926</v>
       </c>
       <c r="C14">
-        <v>0.00334526403127265</v>
+        <v>0.003348318292412661</v>
       </c>
       <c r="D14">
-        <v>0.0003082247684423461</v>
+        <v>0.0003048427254539548</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.004447825088500676</v>
+        <v>0.00445196782994449</v>
       </c>
       <c r="B15">
-        <v>0.0002328674162201572</v>
+        <v>0.0002331898266661173</v>
       </c>
       <c r="C15">
-        <v>0.003330577994463123</v>
+        <v>0.003334075915015019</v>
       </c>
       <c r="D15">
-        <v>0.0003517358416540357</v>
+        <v>0.0003479155106561835</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.005021076893354741</v>
+        <v>0.0050256348147109</v>
       </c>
       <c r="B16">
-        <v>0.0002049638199640793</v>
+        <v>0.000205280290681155</v>
       </c>
       <c r="C16">
-        <v>0.003309308557836632</v>
+        <v>0.003313233537758624</v>
       </c>
       <c r="D16">
-        <v>0.0003945331055760924</v>
+        <v>0.000390291654937011</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.005598424294118411</v>
+        <v>0.005603378945814612</v>
       </c>
       <c r="B17">
-        <v>0.0001823971371323348</v>
+        <v>0.0001827073535306104</v>
       </c>
       <c r="C17">
-        <v>0.003283575531890512</v>
+        <v>0.003287909750790081</v>
       </c>
       <c r="D17">
-        <v>0.0004364777771747884</v>
+        <v>0.0004318333418768534</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.006178610687290698</v>
+        <v>0.006183943503317877</v>
       </c>
       <c r="B18">
-        <v>0.0001638214639536369</v>
+        <v>0.0001641252765221837</v>
       </c>
       <c r="C18">
-        <v>0.003254803823292818</v>
+        <v>0.003259529014182561</v>
       </c>
       <c r="D18">
-        <v>0.0004774907526009456</v>
+        <v>0.0004724617491422744</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.006760748653505053</v>
+        <v>0.006766441303561468</v>
       </c>
       <c r="B19">
-        <v>0.0001482974307830616</v>
+        <v>0.0001485947966236007</v>
       </c>
       <c r="C19">
-        <v>0.003223974521347533</v>
+        <v>0.003229072439721663</v>
       </c>
       <c r="D19">
-        <v>0.0005175302119024273</v>
+        <v>0.0005121349276863912</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.007344194162941662</v>
+        <v>0.007350228762661774</v>
       </c>
       <c r="B20">
-        <v>0.0001351528812261156</v>
+        <v>0.0001354438273930131</v>
       </c>
       <c r="C20">
-        <v>0.003191777744625698</v>
+        <v>0.003197230452008156</v>
       </c>
       <c r="D20">
-        <v>0.0005565780932717409</v>
+        <v>0.0005508344397179459</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.007928468002811839</v>
+        <v>0.007934827236927811</v>
       </c>
       <c r="B21">
-        <v>0.000123895922690146</v>
+        <v>0.0001241805225727521</v>
       </c>
       <c r="C21">
-        <v>0.003158707966826994</v>
+        <v>0.003164498001166635</v>
       </c>
       <c r="D21">
-        <v>0.0005946317166455673</v>
+        <v>0.000588557082410342</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.008513205414961355</v>
+        <v>0.00851987260599445</v>
       </c>
       <c r="B22">
-        <v>0.0001141592477805563</v>
+        <v>0.0001144376055113496</v>
       </c>
       <c r="C22">
-        <v>0.003125125011089869</v>
+        <v>0.003131235486632203</v>
       </c>
       <c r="D22">
-        <v>0.0006316984680285018</v>
+        <v>0.0006253096347207354</v>
       </c>
     </row>
   </sheetData>
@@ -1357,64 +1357,64 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>1.703392994142905e-06</v>
+        <v>-1.451895110943235e-07</v>
       </c>
       <c r="C3">
-        <v>-2.372558674565428e-06</v>
+        <v>-3.764633552075236e-06</v>
       </c>
       <c r="D3">
-        <v>-5.738107977160123e-06</v>
+        <v>-6.466676828464912e-06</v>
       </c>
       <c r="E3">
-        <v>-7.576485310134551e-06</v>
+        <v>-7.40874631686983e-06</v>
       </c>
       <c r="F3">
-        <v>1.604164953955545e-06</v>
+        <v>2.774646395906077e-06</v>
       </c>
       <c r="G3">
-        <v>1.084078408381678e-05</v>
+        <v>1.277866840115188e-05</v>
       </c>
       <c r="H3">
-        <v>1.172862436102373e-05</v>
+        <v>1.392624542286003e-05</v>
       </c>
       <c r="I3">
-        <v>1.121157838741491e-05</v>
+        <v>1.325112263196246e-05</v>
       </c>
       <c r="J3">
-        <v>-4.164928418433356e-07</v>
+        <v>1.275353874063967e-06</v>
       </c>
       <c r="K3">
-        <v>-6.785612361545623e-06</v>
+        <v>-5.5013798636247e-06</v>
       </c>
       <c r="L3">
-        <v>-5.337941702309237e-06</v>
+        <v>-4.475565710298363e-06</v>
       </c>
       <c r="M3">
-        <v>-9.97314450971315e-06</v>
+        <v>-9.530599492617656e-06</v>
       </c>
       <c r="N3">
-        <v>-1.087721603775915e-05</v>
+        <v>-1.084739438358615e-05</v>
       </c>
       <c r="O3">
-        <v>-3.982774936097527e-06</v>
+        <v>-4.34829040893512e-06</v>
       </c>
       <c r="P3">
-        <v>2.544433753068343e-07</v>
+        <v>-4.902030915198557e-07</v>
       </c>
       <c r="Q3">
-        <v>-4.93519534346034e-06</v>
+        <v>-6.039900857256197e-06</v>
       </c>
       <c r="R3">
-        <v>1.701655364229684e-07</v>
+        <v>-1.274700320808182e-06</v>
       </c>
       <c r="S3">
-        <v>4.864049227583205e-06</v>
+        <v>3.099122696605811e-06</v>
       </c>
       <c r="T3">
-        <v>5.683619233398749e-06</v>
+        <v>3.618512020341427e-06</v>
       </c>
       <c r="U3">
-        <v>1.099325632654977e-05</v>
+        <v>8.647354039373421e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1565,64 +1565,64 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>1.865301132438573e-05</v>
+        <v>1.589898281803806e-06</v>
       </c>
       <c r="C3">
-        <v>2.697315455394984e-05</v>
+        <v>4.279938099221505e-05</v>
       </c>
       <c r="D3">
-        <v>6.925899791382165e-05</v>
+        <v>7.805282834598567e-05</v>
       </c>
       <c r="E3">
-        <v>0.0001008181677995283</v>
+        <v>9.858611200092921e-05</v>
       </c>
       <c r="F3">
-        <v>2.495589536334077e-05</v>
+        <v>4.316500304769878e-05</v>
       </c>
       <c r="G3">
-        <v>0.0002126895052740196</v>
+        <v>0.000250709601749105</v>
       </c>
       <c r="H3">
-        <v>0.0003110215953599504</v>
+        <v>0.0003692984731599053</v>
       </c>
       <c r="I3">
-        <v>0.0004160140403493471</v>
+        <v>0.0004916928620394233</v>
       </c>
       <c r="J3">
-        <v>2.153530723078261e-05</v>
+        <v>6.594384043764049e-05</v>
       </c>
       <c r="K3">
-        <v>0.0004751829384835871</v>
+        <v>0.000385250690730021</v>
       </c>
       <c r="L3">
-        <v>0.000487928857615104</v>
+        <v>0.0004091010704111849</v>
       </c>
       <c r="M3">
-        <v>0.001148979782225017</v>
+        <v>0.001097995333250882</v>
       </c>
       <c r="N3">
-        <v>0.001529847543988628</v>
+        <v>0.001525653218507193</v>
       </c>
       <c r="O3">
-        <v>0.0006649039960096039</v>
+        <v>0.0007259249430609549</v>
       </c>
       <c r="P3">
-        <v>4.931073164861129e-05</v>
+        <v>9.5000599131755e-05</v>
       </c>
       <c r="Q3">
-        <v>0.001091857376871757</v>
+        <v>0.001336261251605354</v>
       </c>
       <c r="R3">
-        <v>4.222469886426016e-05</v>
+        <v>0.000316302809133544</v>
       </c>
       <c r="S3">
-        <v>0.001336277260325056</v>
+        <v>0.0008514073342323655</v>
       </c>
       <c r="T3">
-        <v>0.001711933504035768</v>
+        <v>0.001089913259138984</v>
       </c>
       <c r="U3">
-        <v>0.003592567426977049</v>
+        <v>0.002825932692605693</v>
       </c>
     </row>
   </sheetData>
@@ -1720,10 +1720,10 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.9864374151904546</v>
+        <v>-0.9864224957164336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>-0.9864374151904547</v>
+        <v>-0.9864224957164336</v>
       </c>
       <c r="C3">
         <v>1</v>
